--- a/Xen Jakaria/LTRM/Comparative Statement.xlsx
+++ b/Xen Jakaria/LTRM/Comparative Statement.xlsx
@@ -4,10 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Comparative_Statement" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
   <si>
     <t>Original Tor</t>
   </si>
@@ -350,7 +353,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -375,4 +378,61 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="61.77734375" customWidth="1"/>
+    <col min="2" max="2" width="55" customWidth="1"/>
+    <col min="3" max="3" width="56.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>